--- a/tests/resources/xlsx/budgetBills.xlsx
+++ b/tests/resources/xlsx/budgetBills.xlsx
@@ -5,17 +5,17 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\skipped-bills\tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\skipped-bills\tests\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D36E74E-1540-43FA-8FAA-17FC8538680D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FF130-472A-4A65-A788-07E6A4A14930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bills" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -80,9 +80,6 @@
     <t>new old car</t>
   </si>
   <si>
-    <t>load</t>
-  </si>
-  <si>
     <t>adam</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>CC</t>
+  </si>
+  <si>
+    <t>loan</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 3" xfId="1" xr:uid="{49781469-6D4B-4B19-9BDE-3F274DB315B3}"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="5">
     <dxf>
       <font>
         <color auto="1"/>
@@ -233,61 +233,11 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill>
           <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -639,7 +589,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -693,11 +643,11 @@
         <v>12</v>
       </c>
       <c r="E2" s="3">
-        <f>SUMIFS($H:$H, $B:$B, $B2, $A:$A, $A2)</f>
+        <f t="shared" ref="E2:E8" si="0">SUMIFS($H:$H, $B:$B, $B2, $A:$A, $A2)</f>
         <v>29.950000000000003</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>6</v>
@@ -708,27 +658,27 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:D4" si="0">IF(ISBLANK($H3),"",A2)</f>
+        <f t="shared" ref="A3:D4" si="1">IF(ISBLANK($H3),"",A2)</f>
         <v>44563</v>
       </c>
       <c r="B3" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>supermaket</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>abc</v>
+      </c>
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>supermaket</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>abc</v>
-      </c>
-      <c r="E3" s="3">
-        <f>SUMIFS($H:$H, $B:$B, $B3, $A:$A, $A3)</f>
         <v>29.950000000000003</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>6</v>
@@ -739,30 +689,30 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
+        <f t="shared" si="1"/>
+        <v>44563</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>supermaket</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>abc</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>44563</v>
-      </c>
-      <c r="B4" s="2">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>supermaket</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>abc</v>
-      </c>
-      <c r="E4" s="3">
-        <f>SUMIFS($H:$H, $B:$B, $B4, $A:$A, $A4)</f>
         <v>29.950000000000003</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4">
         <v>11.99</v>
@@ -779,17 +729,17 @@
         <v>7</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="3">
-        <f>SUMIFS($H:$H, $B:$B, $B5, $A:$A, $A5)</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4">
         <v>300</v>
@@ -806,17 +756,17 @@
         <v>7</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3">
-        <f>SUMIFS($H:$H, $B:$B, $B6, $A:$A, $A6)</f>
+        <f t="shared" si="0"/>
         <v>9.0299999999999994</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4">
         <v>9.0299999999999994</v>
@@ -836,14 +786,14 @@
         <v>14</v>
       </c>
       <c r="E7" s="3">
-        <f>SUMIFS($H:$H, $B:$B, $B7, $A:$A, $A7)</f>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4">
         <v>250</v>
@@ -857,20 +807,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E8" s="3">
-        <f>SUMIFS($H:$H, $B:$B, $B8, $A:$A, $A8)</f>
+        <f t="shared" si="0"/>
         <v>-378.12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4">
         <v>-378.12</v>
@@ -878,25 +828,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:H8">
-    <cfRule type="expression" dxfId="9" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$A2&lt;&gt;$A1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$B2&lt;&gt;$B1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:H8">
-    <cfRule type="expression" dxfId="8" priority="1">
+    <cfRule type="expression" dxfId="2" priority="1">
       <formula>NOT(IF(OR(COUNTBLANK($A2:$H2)=0,COUNTBLANK($A2:$H2)=6),TRUE))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H2">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="1" priority="6">
       <formula>$B2&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:H2">
-    <cfRule type="expression" dxfId="6" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>$A2&lt;&gt;#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/resources/xlsx/budgetBills.xlsx
+++ b/tests/resources/xlsx/budgetBills.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\skipped-bills\tests\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541FF130-472A-4A65-A788-07E6A4A14930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AEF1F7-B2D8-41A2-BE14-6A06FE56FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>date</t>
   </si>
   <si>
-    <t>prise</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>loan</t>
+  </si>
+  <si>
+    <t>amount</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -605,28 +605,28 @@
         <v>1</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -637,20 +637,20 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E8" si="0">SUMIFS($H:$H, $B:$B, $B2, $A:$A, $A2)</f>
         <v>29.950000000000003</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
         <v>7.98</v>
@@ -678,10 +678,10 @@
         <v>29.950000000000003</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4">
         <v>9.98</v>
@@ -709,10 +709,10 @@
         <v>29.950000000000003</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="4">
         <v>11.99</v>
@@ -726,20 +726,20 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H5" s="4">
         <v>300</v>
@@ -753,20 +753,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>9.0299999999999994</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H6" s="4">
         <v>9.0299999999999994</v>
@@ -780,20 +780,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H7" s="4">
         <v>250</v>
@@ -807,20 +807,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>-378.12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H8" s="4">
         <v>-378.12</v>
@@ -853,7 +853,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B1 D1:E1 G1:H1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B1 D1:E1 G1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/resources/xlsx/budgetBills.xlsx
+++ b/tests/resources/xlsx/budgetBills.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repos\skipped-bills\tests\resources\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39AEF1F7-B2D8-41A2-BE14-6A06FE56FC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0D397-BDE2-48B7-BADB-36570DA04C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="bills" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -65,9 +65,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>supermaket</t>
-  </si>
-  <si>
     <t>abc</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>amount</t>
+  </si>
+  <si>
+    <t>supermarket</t>
   </si>
 </sst>
 </file>
@@ -589,7 +589,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -623,7 +623,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>9</v>
@@ -637,17 +637,17 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="3">
         <f t="shared" ref="E2:E8" si="0">SUMIFS($H:$H, $B:$B, $B2, $A:$A, $A2)</f>
         <v>29.950000000000003</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>5</v>
@@ -667,7 +667,7 @@
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>supermaket</v>
+        <v>supermarket</v>
       </c>
       <c r="D3" s="2" t="str">
         <f t="shared" si="1"/>
@@ -678,7 +678,7 @@
         <v>29.950000000000003</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>5</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>supermaket</v>
+        <v>supermarket</v>
       </c>
       <c r="D4" s="2" t="str">
         <f t="shared" si="1"/>
@@ -709,10 +709,10 @@
         <v>29.950000000000003</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H4" s="4">
         <v>11.99</v>
@@ -729,17 +729,17 @@
         <v>6</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="4">
         <v>300</v>
@@ -756,17 +756,17 @@
         <v>6</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>9.0299999999999994</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="4">
         <v>9.0299999999999994</v>
@@ -780,20 +780,20 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H7" s="4">
         <v>250</v>
@@ -807,20 +807,20 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>-378.12</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="4">
         <v>-378.12</v>
